--- a/biology/Médecine/Daniel_Alcides_Carrión/Daniel_Alcides_Carrión.xlsx
+++ b/biology/Médecine/Daniel_Alcides_Carrión/Daniel_Alcides_Carrión.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Daniel_Alcides_Carri%C3%B3n</t>
+          <t>Daniel_Alcides_Carrión</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Daniel Alcides Carrión (Cerro de Pasco, 13 août 1857 - Lima, 5 octobre 1885) est un scientifique péruvien, étudiant en médecine à l'Université nationale principale de San Marcos, célèbre pour s'être fait inoculer volontairement le 27 août 1885 le contenu d'une verrue provenant d'une patiente affectée par la verruga du Pérou. Vingt-et-un jours après cette inoculation, Carrión a constaté l'apparition des symptômes de la fièvre de l'Oroya. Il a effectué lui-même le suivi clinique de l'affection jusqu'au 26 septembre, date à partir de laquelle il en fut incapable au vu de l'aggravation des symptômes. Carrión est mort de la fièvre d'Oroya le 5 octobre 1885, apportant par son expérience la preuve que la verruga du Pérou et la fièvre de l'Oroya sont dues à une seule et même cause[1],[2]. La fièvre d'Oroya et la verruga du Pérou sont aujourd'hui nommées en son honneur « maladie de Carrión », le 5 octobre est commémoré comme « journée de la Médecine péruvienne », tandis que Carrión est reconnu comme « martyr de la médecine péruvienne »[1]. Une province de la région de Pasco a été baptisée province de Daniel Alcides Carrión en sa mémoire.  Alberto Barton (es) a découvert en 1905 l'agent pathogène de la maladie de Carrión, la bactérie Bartonella bacilliformis[3]
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Daniel Alcides Carrión (Cerro de Pasco, 13 août 1857 - Lima, 5 octobre 1885) est un scientifique péruvien, étudiant en médecine à l'Université nationale principale de San Marcos, célèbre pour s'être fait inoculer volontairement le 27 août 1885 le contenu d'une verrue provenant d'une patiente affectée par la verruga du Pérou. Vingt-et-un jours après cette inoculation, Carrión a constaté l'apparition des symptômes de la fièvre de l'Oroya. Il a effectué lui-même le suivi clinique de l'affection jusqu'au 26 septembre, date à partir de laquelle il en fut incapable au vu de l'aggravation des symptômes. Carrión est mort de la fièvre d'Oroya le 5 octobre 1885, apportant par son expérience la preuve que la verruga du Pérou et la fièvre de l'Oroya sont dues à une seule et même cause,. La fièvre d'Oroya et la verruga du Pérou sont aujourd'hui nommées en son honneur « maladie de Carrión », le 5 octobre est commémoré comme « journée de la Médecine péruvienne », tandis que Carrión est reconnu comme « martyr de la médecine péruvienne ». Une province de la région de Pasco a été baptisée province de Daniel Alcides Carrión en sa mémoire.  Alberto Barton (es) a découvert en 1905 l'agent pathogène de la maladie de Carrión, la bactérie Bartonella bacilliformis
 </t>
         </is>
       </c>
